--- a/case_studies/May 2018/SS_results_all.xlsx
+++ b/case_studies/May 2018/SS_results_all.xlsx
@@ -250,31 +250,31 @@
         <v>27</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7193898032918506</v>
+        <v>0.72099558410277</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5901244480128462</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="D2" t="n">
-        <v>0.22842232035327178</v>
+        <v>0.2300281011641911</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2155760738659173</v>
+        <v>0.21517462866318748</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6407065435568045</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2183861902850261</v>
+        <v>0.21798474508229626</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8069048574869531</v>
+        <v>0.8065034122842232</v>
       </c>
       <c r="I2" t="n">
         <v>0.0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.23564833400240867</v>
+        <v>0.23524688879967884</v>
       </c>
       <c r="K2" t="n">
         <v>0.676836611802489</v>
@@ -283,52 +283,52 @@
         <v>0.0076274588518667205</v>
       </c>
       <c r="M2" t="n">
+        <v>0.2300281011641911</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.460457647531112</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.39060618225612204</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.21959052589321557</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.8065034122842232</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.23524688879967884</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.7061421116017663</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.30830991569650745</v>
+      </c>
+      <c r="V2" t="n">
         <v>0.22922521075873142</v>
       </c>
-      <c r="N2" t="n">
-        <v>0.46085909273384185</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.4146928944199117</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.2199919710959454</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.8069048574869531</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.23564833400240867</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.7065435568044962</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.3283821758329988</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.22962665596146126</v>
-      </c>
       <c r="W2" t="n">
-        <v>0.8249698916097953</v>
+        <v>0.8245684464070654</v>
       </c>
       <c r="X2" t="n">
-        <v>0.4102769971898836</v>
+        <v>0.3861902850260939</v>
       </c>
       <c r="Y2" t="n">
         <v>0.3966278602970694</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.8069048574869531</v>
+        <v>0.8065034122842232</v>
       </c>
       <c r="AA2" t="n">
         <v>0.0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.23564833400240867</v>
+        <v>0.23524688879967884</v>
       </c>
     </row>
     <row r="3">
@@ -336,31 +336,31 @@
         <v>28</v>
       </c>
       <c r="B3" t="n">
-        <v>0.15629632445170855</v>
+        <v>0.1561442852255882</v>
       </c>
       <c r="C3" t="n">
-        <v>0.12341784180318523</v>
+        <v>0.1256984301949903</v>
       </c>
       <c r="D3" t="n">
-        <v>0.15222927515298948</v>
+        <v>0.15207723592686914</v>
       </c>
       <c r="E3" t="n">
-        <v>0.14732601011060853</v>
+        <v>0.14736401991713863</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1975749743433806</v>
+        <v>0.1998175529286556</v>
       </c>
       <c r="G3" t="n">
-        <v>0.14732601011060853</v>
+        <v>0.14736401991713863</v>
       </c>
       <c r="H3" t="n">
-        <v>0.15059485347219584</v>
+        <v>0.1506328632787259</v>
       </c>
       <c r="I3" t="n">
         <v>0.0012163138089627125</v>
       </c>
       <c r="J3" t="n">
-        <v>0.14877038275875176</v>
+        <v>0.14880839256528183</v>
       </c>
       <c r="K3" t="n">
         <v>0.17179563788467284</v>
@@ -369,52 +369,52 @@
         <v>6.82914336932861E-4</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1692347091211746</v>
+        <v>0.169149344829058</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1647530837850527</v>
+        <v>0.164795765931111</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1232660378163814</v>
+        <v>0.12582696657987963</v>
       </c>
       <c r="P3" t="n">
-        <v>0.16432626232446967</v>
+        <v>0.16436894447052797</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1691066626829997</v>
+        <v>0.169149344829058</v>
       </c>
       <c r="R3" t="n">
         <v>0.0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.16705791967220113</v>
+        <v>0.16710060181825942</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1926127792106672</v>
+        <v>0.19266144337923988</v>
       </c>
       <c r="U3" t="n">
-        <v>0.059418949827242204</v>
+        <v>0.0618521582558762</v>
       </c>
       <c r="V3" t="n">
-        <v>0.19193148085064968</v>
+        <v>0.19198014501922234</v>
       </c>
       <c r="W3" t="n">
-        <v>0.20288091877950265</v>
+        <v>0.20292958294807534</v>
       </c>
       <c r="X3" t="n">
-        <v>0.08199912404496569</v>
+        <v>0.08491897415932649</v>
       </c>
       <c r="Y3" t="n">
         <v>0.19528930848216458</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.1928074358849579</v>
+        <v>0.1928561000535306</v>
       </c>
       <c r="AA3" t="n">
         <v>0.0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.19047155579346928</v>
+        <v>0.19052021996204194</v>
       </c>
     </row>
     <row r="4">
@@ -422,31 +422,31 @@
         <v>29</v>
       </c>
       <c r="B4" t="n">
-        <v>0.28061019670814935</v>
+        <v>0.27900441589723</v>
       </c>
       <c r="C4" t="n">
-        <v>0.40987555198715375</v>
+        <v>0.4339622641509434</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7715776796467282</v>
+        <v>0.769971898835809</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7844239261340827</v>
+        <v>0.7848253713368125</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3592934564431955</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7816138097149739</v>
+        <v>0.7820152549177037</v>
       </c>
       <c r="H4" t="n">
-        <v>0.19309514251304696</v>
+        <v>0.1934965877157768</v>
       </c>
       <c r="I4" t="n">
         <v>1.0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7643516659975913</v>
+        <v>0.7647531112003212</v>
       </c>
       <c r="K4" t="n">
         <v>0.32316338819751106</v>
@@ -455,52 +455,52 @@
         <v>0.9923725411481332</v>
       </c>
       <c r="M4" t="n">
+        <v>0.769971898835809</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.539542352468888</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.6093938177438779</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.7804094741067844</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.1934965877157768</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.7647531112003212</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.2938578883982336</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.6916900843034925</v>
+      </c>
+      <c r="V4" t="n">
         <v>0.7707747892412685</v>
       </c>
-      <c r="N4" t="n">
-        <v>0.5391409072661582</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.5853071055800884</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.7800080289040546</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.19309514251304696</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.7643516659975913</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.2934564431955038</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.6716178241670012</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.7703733440385387</v>
-      </c>
       <c r="W4" t="n">
-        <v>0.17503010839020475</v>
+        <v>0.17543155359293455</v>
       </c>
       <c r="X4" t="n">
-        <v>0.5897230028101165</v>
+        <v>0.613809714973906</v>
       </c>
       <c r="Y4" t="n">
         <v>0.6033721397029306</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.19309514251304696</v>
+        <v>0.1934965877157768</v>
       </c>
       <c r="AA4" t="n">
         <v>1.0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.7643516659975913</v>
+        <v>0.7647531112003212</v>
       </c>
     </row>
     <row r="5">
@@ -508,85 +508,85 @@
         <v>30</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9723002810116419</v>
+        <v>0.9706945002007226</v>
       </c>
       <c r="C5" t="n">
-        <v>0.41830590124448014</v>
+        <v>0.3942191890806905</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2798073063026897</v>
+        <v>0.27820152549177035</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9947812123645122</v>
+        <v>0.9943797671617824</v>
       </c>
       <c r="F5" t="n">
-        <v>0.24006423123243678</v>
+        <v>0.21798474508229626</v>
       </c>
       <c r="G5" t="n">
-        <v>0.22521075873143315</v>
+        <v>0.22480931352870334</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8293857888398234</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="I5" t="n">
         <v>0.0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2155760738659173</v>
+        <v>0.2167804094741068</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9670814933761541</v>
+        <v>0.9678843837816138</v>
       </c>
       <c r="L5" t="n">
         <v>0.0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.36451224407868327</v>
+        <v>0.3649136892814131</v>
       </c>
       <c r="N5" t="n">
-        <v>0.9923725411481332</v>
+        <v>0.9955841027699719</v>
       </c>
       <c r="O5" t="n">
         <v>0.0</v>
       </c>
       <c r="P5" t="n">
-        <v>0.2332396627860297</v>
+        <v>0.23404255319148937</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.8293857888398234</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="R5" t="n">
         <v>0.0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.2155760738659173</v>
+        <v>0.2167804094741068</v>
       </c>
       <c r="T5" t="n">
-        <v>0.9779205138498595</v>
+        <v>0.9799277398635087</v>
       </c>
       <c r="U5" t="n">
         <v>0.0</v>
       </c>
       <c r="V5" t="n">
-        <v>0.2661581694098756</v>
+        <v>0.26655961461260536</v>
       </c>
       <c r="W5" t="n">
-        <v>0.9943797671617824</v>
+        <v>0.9983942191890807</v>
       </c>
       <c r="X5" t="n">
         <v>0.0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.2533119229225211</v>
+        <v>0.25411481332798075</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.8293857888398234</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="AA5" t="n">
         <v>0.0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.2155760738659173</v>
+        <v>0.2167804094741068</v>
       </c>
     </row>
     <row r="6">
@@ -594,85 +594,85 @@
         <v>31</v>
       </c>
       <c r="B6" t="n">
-        <v>0.09441635942073055</v>
+        <v>0.09456839864685089</v>
       </c>
       <c r="C6" t="n">
-        <v>0.10585731118628607</v>
+        <v>0.10813789957809115</v>
       </c>
       <c r="D6" t="n">
-        <v>0.08765061385837546</v>
+        <v>0.0878026530844958</v>
       </c>
       <c r="E6" t="n">
-        <v>0.12345585160971531</v>
+        <v>0.1234938614162454</v>
       </c>
       <c r="F6" t="n">
-        <v>0.06689725949294918</v>
+        <v>0.06898779885210385</v>
       </c>
       <c r="G6" t="n">
-        <v>0.08749857463225512</v>
+        <v>0.0875365844387852</v>
       </c>
       <c r="H6" t="n">
-        <v>0.15029077501995514</v>
+        <v>0.15021475540689497</v>
       </c>
       <c r="I6" t="n">
         <v>0.0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.14827625527386065</v>
+        <v>0.1481622258542704</v>
       </c>
       <c r="K6" t="n">
-        <v>0.18331981732041486</v>
+        <v>0.18323445302829827</v>
       </c>
       <c r="L6" t="n">
         <v>0.0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.17657603824320287</v>
+        <v>0.17653335609714457</v>
       </c>
       <c r="N6" t="n">
-        <v>0.17738699901831065</v>
+        <v>0.17704554184984422</v>
       </c>
       <c r="O6" t="n">
         <v>0.0</v>
       </c>
       <c r="P6" t="n">
-        <v>0.16509454095351914</v>
+        <v>0.16500917666140252</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.16876520551453328</v>
+        <v>0.16867984122241667</v>
       </c>
       <c r="R6" t="n">
         <v>0.0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.16650305177344316</v>
+        <v>0.16637500533526825</v>
       </c>
       <c r="T6" t="n">
-        <v>0.2138790208769283</v>
+        <v>0.21363570003406493</v>
       </c>
       <c r="U6" t="n">
         <v>0.0</v>
       </c>
       <c r="V6" t="n">
-        <v>0.19952309114798775</v>
+        <v>0.19947442697941506</v>
       </c>
       <c r="W6" t="n">
-        <v>0.20117767287945884</v>
+        <v>0.20069103119373205</v>
       </c>
       <c r="X6" t="n">
         <v>0.0</v>
       </c>
       <c r="Y6" t="n">
+        <v>0.18959560075916104</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.1923207941992311</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB6" t="n">
         <v>0.1896929290963064</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0.19241812253637647</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0.18983892160202442</v>
       </c>
     </row>
     <row r="7">
@@ -680,85 +680,85 @@
         <v>32</v>
       </c>
       <c r="B7" t="n">
-        <v>0.027699718988358088</v>
+        <v>0.0293054997992774</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5816940987555199</v>
+        <v>0.6057808109193095</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7201926936973103</v>
+        <v>0.7217984745082296</v>
       </c>
       <c r="E7" t="n">
-        <v>0.005218787635487756</v>
+        <v>0.005620232838217583</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7599357687675632</v>
+        <v>0.7820152549177037</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7747892412685669</v>
+        <v>0.7751906864712966</v>
       </c>
       <c r="H7" t="n">
-        <v>0.17061421116017664</v>
+        <v>0.16981132075471697</v>
       </c>
       <c r="I7" t="n">
         <v>1.0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7844239261340827</v>
+        <v>0.7832195905258932</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03291850662384584</v>
+        <v>0.03211561621838619</v>
       </c>
       <c r="L7" t="n">
         <v>1.0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6354877559213168</v>
+        <v>0.6350863107185869</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0076274588518667205</v>
+        <v>0.004415897230028101</v>
       </c>
       <c r="O7" t="n">
         <v>1.0</v>
       </c>
       <c r="P7" t="n">
-        <v>0.7667603372139703</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.17061421116017664</v>
+        <v>0.16981132075471697</v>
       </c>
       <c r="R7" t="n">
         <v>1.0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7844239261340827</v>
+        <v>0.7832195905258932</v>
       </c>
       <c r="T7" t="n">
-        <v>0.022079486150140507</v>
+        <v>0.02007226013649137</v>
       </c>
       <c r="U7" t="n">
         <v>1.0</v>
       </c>
       <c r="V7" t="n">
-        <v>0.7338418305901244</v>
+        <v>0.7334403853873946</v>
       </c>
       <c r="W7" t="n">
-        <v>0.005620232838217583</v>
+        <v>0.0016057808109193096</v>
       </c>
       <c r="X7" t="n">
         <v>1.0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.746688077077479</v>
+        <v>0.7458851866720193</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.17061421116017664</v>
+        <v>0.16981132075471697</v>
       </c>
       <c r="AA7" t="n">
         <v>1.0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.7844239261340827</v>
+        <v>0.7832195905258932</v>
       </c>
     </row>
   </sheetData>
